--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1336153.937893957</v>
+        <v>1440333.572345028</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>125.0132180293225</v>
+        <v>188.1489909417861</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498662</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,10 +819,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>55.6790433100436</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>35.19979243143102</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>317.3704470008169</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>195.3053214965501</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>88.89700561060577</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>336.5720236022901</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>248.681221462516</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>81.77200357366304</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>20.95866062610969</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.02223045762</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128544</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>63.162813017127</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856549</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>176.7621441121418</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695709</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.16086499484949</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>59.96838802184633</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>176.7621441121412</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>103.780257294552</v>
       </c>
       <c r="T22" t="n">
-        <v>91.89996056624886</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2476,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>98.72106119200298</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2615,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2716,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2846,10 +2848,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2953,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>4.019807611472472</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3123,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3193,10 +3195,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>41.55695577161152</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>206.758226496619</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701319</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3360,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D37" t="n">
-        <v>108.9065924712593</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695258</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3597,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3664,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>9.14614278817986</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3834,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>50.06209150957608</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>18.7084378797726</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3983,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4138,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4328,19 +4330,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4355,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W2" t="n">
-        <v>2862.546497866151</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X2" t="n">
-        <v>2489.080739605071</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y2" t="n">
-        <v>2362.804761797675</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>234.2149530574645</v>
+        <v>482.8906159540807</v>
       </c>
       <c r="C4" t="n">
-        <v>234.2149530574645</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="D4" t="n">
-        <v>234.2149530574645</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>864.6455479292516</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>864.6455479292516</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>864.6455479292516</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>864.6455479292516</v>
+        <v>885.3316599278505</v>
       </c>
       <c r="X4" t="n">
-        <v>636.6559970312343</v>
+        <v>885.3316599278505</v>
       </c>
       <c r="Y4" t="n">
-        <v>415.8634178877041</v>
+        <v>664.5390807843204</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1881.708680670284</v>
+        <v>1261.532988317206</v>
       </c>
       <c r="C5" t="n">
-        <v>1881.708680670284</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="D5" t="n">
-        <v>1523.442982063533</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E5" t="n">
-        <v>1137.654729465289</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>726.6688246756817</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4592,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>2764.506573888334</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995485</v>
+        <v>2411.73791861822</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734406</v>
+        <v>2038.27216035714</v>
       </c>
       <c r="Y5" t="n">
-        <v>2268.308520734406</v>
+        <v>1648.132828381328</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
         <v>66.51211643218342</v>
@@ -4756,19 +4758,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>377.0996507379416</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>287.3046955757135</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>287.3046955757135</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218342</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1274.53911114974</v>
+        <v>1944.904841306683</v>
       </c>
       <c r="C8" t="n">
-        <v>934.5673701373257</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3074.412668616731</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3074.412668616731</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2721.644013346617</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189673</v>
+        <v>2721.644013346617</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.138951213862</v>
+        <v>2331.504681370805</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>838.2890224104441</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>838.2890224104441</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>549.1861555360877</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V10" t="n">
-        <v>294.5016673302007</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W10" t="n">
-        <v>294.5016673302007</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="X10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756268</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756268</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L12" t="n">
-        <v>738.788911791386</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417938</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972546</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211833</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="E13" t="n">
         <v>631.7012443408906</v>
@@ -5194,55 +5196,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038348</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487569</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2197.062545487569</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5270,7 +5272,7 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5282,25 +5284,25 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492579</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913855</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913855</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5431,7 +5433,7 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611859</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.284195611859</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5507,22 +5509,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5531,13 +5533,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913855</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417938</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>2878.798005073648</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>2878.798005073648</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U19" t="n">
-        <v>2197.062545487568</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,10 +5749,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
@@ -5768,7 +5770,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5832,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>562.8579153358614</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.18352155162</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>658.9255961109956</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282754</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458823</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797189</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5917,7 +5919,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,7 +5928,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
@@ -5935,25 +5937,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235166</v>
+        <v>2342.134540858491</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>2122.533075881433</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1833.45784922563</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1578.773361019743</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1289.356190982783</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>1061.366640084765</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>840.5740609412353</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.6461798836018</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>734.6461798836018</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>584.529540471266</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>94.65038286230657</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138415</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6221,52 +6223,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803938</v>
@@ -6312,10 +6314,10 @@
         <v>245.2306927803938</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6406,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,13 +6451,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6479,22 +6481,22 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245705</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6643,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6692,58 +6694,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961526</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="M33" t="n">
-        <v>740.5562989961526</v>
+        <v>840.8417932021782</v>
       </c>
       <c r="N33" t="n">
-        <v>1368.15426255076</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>135.7933860495997</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>2227.361618603202</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6950,34 +6952,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7002,31 +7004,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O36" t="n">
         <v>2516.421633107662</v>
@@ -7069,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
         <v>484.8112968429802</v>
@@ -7090,55 +7092,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,43 +7165,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7236,34 +7238,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>244.7670222746423</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>103.0551911168404</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="41">
@@ -7403,34 +7405,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>580.8993044876693</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7630,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
@@ -7661,13 +7663,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>83.27114962944216</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23467,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>75.37549921168616</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>134.6711151870878</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>119.863592160091</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23941,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>75.37549921168682</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>77.24602870709256</v>
       </c>
       <c r="T22" t="n">
-        <v>125.5054897610394</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>47.71290145456619</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>144.5956654067399</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>39.70888054695403</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -25129,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>45.37941682720898</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25211,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>3.012701199622825e-12</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25312,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D37" t="n">
-        <v>39.70888054695304</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>2.728484105318785e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>72.11969353038566</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>98.55338150863628</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>922678.5798115528</v>
+        <v>922678.5798115527</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115528</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>922678.5798115525</v>
+        <v>922678.5798115527</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>922678.5798115528</v>
+        <v>922678.5798115523</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="E2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="F2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="G2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="H2" t="n">
         <v>504466.6248062539</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>504466.6248062539</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="K2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="H2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062539</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062539</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062539</v>
-      </c>
       <c r="M2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="P2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504466.6248062536</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073563</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551201</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405254</v>
+      </c>
+      <c r="C4" t="n">
         <v>93596.74410405257</v>
       </c>
-      <c r="C4" t="n">
-        <v>93596.74410405254</v>
-      </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
@@ -26430,7 +26432,7 @@
         <v>15436.64000687966</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687967</v>
@@ -26439,25 +26441,25 @@
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687961</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26481,7 @@
         <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26524,46 @@
         <v>-1017124.324227861</v>
       </c>
       <c r="C6" t="n">
+        <v>311620.421499731</v>
+      </c>
+      <c r="D6" t="n">
         <v>311620.4214997311</v>
       </c>
-      <c r="D6" t="n">
-        <v>311620.4214997315</v>
-      </c>
       <c r="E6" t="n">
-        <v>62494.99316811067</v>
+        <v>62494.99316811131</v>
       </c>
       <c r="F6" t="n">
-        <v>387907.4549754674</v>
+        <v>387907.4549754672</v>
       </c>
       <c r="G6" t="n">
+        <v>387907.454975467</v>
+      </c>
+      <c r="H6" t="n">
         <v>387907.4549754671</v>
-      </c>
-      <c r="H6" t="n">
-        <v>387907.4549754669</v>
       </c>
       <c r="I6" t="n">
         <v>387907.4549754671</v>
       </c>
       <c r="J6" t="n">
-        <v>170376.2525781897</v>
+        <v>170376.2525781894</v>
       </c>
       <c r="K6" t="n">
+        <v>387907.4549754669</v>
+      </c>
+      <c r="L6" t="n">
+        <v>387907.4549754673</v>
+      </c>
+      <c r="M6" t="n">
+        <v>302852.427039955</v>
+      </c>
+      <c r="N6" t="n">
+        <v>387907.4549754669</v>
+      </c>
+      <c r="O6" t="n">
+        <v>387907.4549754669</v>
+      </c>
+      <c r="P6" t="n">
         <v>387907.4549754671</v>
-      </c>
-      <c r="L6" t="n">
-        <v>387907.4549754671</v>
-      </c>
-      <c r="M6" t="n">
-        <v>302852.4270399549</v>
-      </c>
-      <c r="N6" t="n">
-        <v>387907.4549754672</v>
-      </c>
-      <c r="O6" t="n">
-        <v>387907.4549754672</v>
-      </c>
-      <c r="P6" t="n">
-        <v>387907.4549754669</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341675</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26795,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26802,28 +26804,28 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483766</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973566</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973566</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>261.2247206267311</v>
+        <v>198.0889477142675</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>163.8699059661256</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27597,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>251.32320590516</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>93.5512786526366</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>132.4469369735848</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27828,19 +27830,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>197.6259927259852</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>167.4277998651737</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>28.70086816871748</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>2.313950496385957</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>107.9970217577789</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28071,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29758,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348437</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135344</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.544175081758</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175681</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159432</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460034</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236513</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669226</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043728</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.0736191065153</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420757</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551095</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473077</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862126</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.279049007179</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437247</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>134.7284881171877</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418562</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742442</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275956</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189905</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121572</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869279</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796263</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.602080235518</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588156</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392048</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.676771792006</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515929</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532769</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467223</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32081,28 +32083,28 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>705.9257335045839</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32315,31 +32317,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>659.9976957396698</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,31 +32554,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4622569139901</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32704,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32783,34 +32785,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>316.2462973459351</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33032,13 +33034,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>535.8585467435946</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
@@ -33263,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551104</v>
+        <v>138.5955196772183</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33284,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>638.9422653403551</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>213.1625787491751</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,46 +33572,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>407.2177391203979</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33758,16 +33760,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,46 +33809,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709969</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,46 +34046,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181836</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,46 +34283,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460043</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>577.7447198439381</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,46 +34520,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317398</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396423</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367775</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462694</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902954</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243166</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683818</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924731</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.158224775409</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>37.76383318075054</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674335</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238457</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992803</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7540807028574202</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789222</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096352</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>574.5840214212507</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>528.6559836563365</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>322.6208179396311</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36352,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>176.2645232599136</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>439.1903400640639</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>393.2623022991502</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
@@ -36911,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.7638331807514</v>
+        <v>0.7540807028593151</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36932,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>496.3460208959107</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>73.18080466315352</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>265.0837051983796</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37406,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876636</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961653</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243176</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>439.190340064064</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1440333.572345028</v>
+        <v>1436320.962331035</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>2.85402886665252</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>188.1489909417861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.817218682477</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>35.19979243143102</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>72.08802744677259</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>394.2071006265883</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>195.3053214965501</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>58.28185552386351</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>202.7418792329073</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>19.68942351146619</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>248.681221462516</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>20.95866062610969</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>63.162813017127</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>134.3852063573451</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428207</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>59.96838802184633</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>103.780257294552</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8253826161913524</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678096</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>81.13054509253726</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
-        <v>41.55695577161152</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701319</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695258</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T40" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>18.7084378797726</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>33.45472478221009</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653544</v>
+        <v>2421.86118400969</v>
       </c>
       <c r="X2" t="n">
-        <v>1808.800296392464</v>
+        <v>2048.39542574861</v>
       </c>
       <c r="Y2" t="n">
-        <v>1618.75081059268</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>482.8906159540807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>313.9544330261738</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4527,13 +4527,13 @@
         <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>885.3316599278505</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>885.3316599278505</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>664.5390807843204</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1261.532988317206</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C5" t="n">
-        <v>892.5704713767946</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="D5" t="n">
-        <v>892.5704713767946</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2764.506573888334</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2411.73791861822</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2038.27216035714</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1648.132828381328</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
         <v>66.51211643218342</v>
@@ -4749,28 +4749,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="X7" t="n">
-        <v>862.0164446829692</v>
+        <v>603.0669976776956</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>398.2772206747588</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1944.904841306683</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C8" t="n">
-        <v>1575.942324366272</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1340.243929312809</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>954.4556767145643</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>543.4697719249568</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>128.3973217699533</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3074.412668616731</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3074.412668616731</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2721.644013346617</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2721.644013346617</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2331.504681370805</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,7 +4901,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218343</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>631.7841389438286</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>377.0996507379417</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>87.6824807009811</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="11">
@@ -5041,25 +5041,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852257</v>
@@ -5074,16 +5074,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245697</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403286</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5178,22 +5178,22 @@
         <v>695.5020655703119</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703119</v>
+        <v>526.565882642405</v>
       </c>
       <c r="D13" t="n">
-        <v>695.5020655703119</v>
+        <v>376.4492432300692</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>376.4492432300692</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>229.5592957321589</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797191</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5290,13 +5290,13 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852257</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797191</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2878.798005073648</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>2878.798005073648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>2939.372134388645</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5743,31 +5743,31 @@
         <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5834,16 +5834,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>658.9255961109956</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>489.9894131830887</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D22" t="n">
-        <v>489.9894131830887</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2342.134540858491</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2122.533075881433</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1833.45784922563</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1578.773361019743</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1289.356190982783</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1061.366640084765</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>840.5740609412353</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6031,7 +6031,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M24" t="n">
-        <v>738.7889117913853</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N24" t="n">
-        <v>1366.386875345992</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O24" t="n">
-        <v>1918.296605585279</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P24" t="n">
-        <v>2341.919755080347</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474266</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>261.8464821474266</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>261.8464821474266</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>94.65038286230657</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,10 +6238,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803938</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6460,19 +6460,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6490,10 +6490,10 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
         <v>402.7245934908938</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2182.158203687148</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>900.1991887469508</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,40 +6712,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021782</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>277.5052172074016</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>135.7933860495997</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6952,34 +6952,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7004,25 +7004,25 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273896</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516141</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M36" t="n">
         <v>1336.913939313768</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7189,16 +7189,16 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7241,37 +7241,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273896</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516141</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793924</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2267.47159895366</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.396372297858</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1723.711884091971</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134625</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,31 +7408,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7639,28 +7639,28 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068011</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2413.170432285099</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2193.56896730804</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1904.493740652238</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1649.809252446351</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1360.39208240939</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1132.402531511373</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
   </sheetData>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>83.27114962944216</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>31.13893193492376</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>63.3683537222871</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>119.863592160091</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>41.54258064659051</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>77.24602870709256</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>139.4693302300325</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>62.35543909864911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>136.274905234751</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>39.70888054695403</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.012701199622825e-12</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>2.728484105318785e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T40" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>146.8157004124963</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>147.5715612194345</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>922678.5798115528</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>922678.5798115528</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>922678.5798115525</v>
+        <v>922678.5798115527</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>922678.5798115525</v>
+        <v>922678.5798115527</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>922678.5798115528</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>922678.5798115523</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>922678.5798115525</v>
+        <v>922678.5798115527</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>922678.5798115525</v>
+        <v>922678.5798115527</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651768</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.106165177</v>
       </c>
-      <c r="C2" t="n">
-        <v>513151.1061651769</v>
-      </c>
       <c r="D2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="F2" t="n">
         <v>504466.6248062538</v>
@@ -26331,31 +26331,31 @@
         <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="J2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="K2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="N2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="O2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="L2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062536</v>
-      </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
+        <v>93596.74410405256</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405257</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.74410405249</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
@@ -26447,19 +26447,19 @@
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687973</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="N4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="N4" t="n">
-        <v>15436.64000687966</v>
-      </c>
       <c r="O4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1017124.324227861</v>
+        <v>-1017124.324227862</v>
       </c>
       <c r="C6" t="n">
-        <v>311620.421499731</v>
+        <v>311620.4214997312</v>
       </c>
       <c r="D6" t="n">
-        <v>311620.4214997311</v>
+        <v>311620.4214997315</v>
       </c>
       <c r="E6" t="n">
-        <v>62494.99316811131</v>
+        <v>62147.61391375409</v>
       </c>
       <c r="F6" t="n">
-        <v>387907.4549754672</v>
+        <v>387560.0757211102</v>
       </c>
       <c r="G6" t="n">
-        <v>387907.454975467</v>
+        <v>387560.0757211099</v>
       </c>
       <c r="H6" t="n">
-        <v>387907.4549754671</v>
+        <v>387560.0757211098</v>
       </c>
       <c r="I6" t="n">
-        <v>387907.4549754671</v>
+        <v>387560.0757211099</v>
       </c>
       <c r="J6" t="n">
-        <v>170376.2525781894</v>
+        <v>170028.8733238326</v>
       </c>
       <c r="K6" t="n">
-        <v>387907.4549754669</v>
+        <v>387560.07572111</v>
       </c>
       <c r="L6" t="n">
-        <v>387907.4549754673</v>
+        <v>387560.0757211098</v>
       </c>
       <c r="M6" t="n">
-        <v>302852.427039955</v>
+        <v>302505.0477855981</v>
       </c>
       <c r="N6" t="n">
-        <v>387907.4549754669</v>
+        <v>387560.07572111</v>
       </c>
       <c r="O6" t="n">
-        <v>387907.4549754669</v>
+        <v>387560.0757211099</v>
       </c>
       <c r="P6" t="n">
-        <v>387907.4549754671</v>
+        <v>387560.0757211099</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26804,7 +26804,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>346.3869398507605</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.0889477142675</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>251.32320590516</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>146.4966259053222</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>12.66894511512317</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>132.4469369735848</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>167.4277998651737</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>15.84277411918745</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>274.9183408758543</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>2.313950496385957</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,16 +28067,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>204.7509947629275</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,13 +31837,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551095</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473074</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32080,10 +32080,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,13 +32311,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32554,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32785,7 +32785,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,10 +32794,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -32809,7 +32809,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>316.2462973459351</v>
+        <v>211.3773391483997</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33022,16 +33022,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>535.8585467435946</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33259,13 +33259,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>213.1625787491751</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,46 +33572,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>637.8521160493917</v>
       </c>
       <c r="M36" t="n">
-        <v>407.2177391203979</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,16 +33760,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,46 +33809,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>320.9147064709969</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>211.3773391483997</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,46 +34046,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>244.0266243181836</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,46 +34283,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460043</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>301.6445156724565</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,46 +34520,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075054</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674332</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,10 +36442,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36457,7 +36457,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>176.2645232599136</v>
+        <v>71.39556506237817</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789214</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>393.2623022991502</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>73.18080466315352</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>499.2977362695175</v>
       </c>
       <c r="M36" t="n">
-        <v>265.0837051983796</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>189.5729943876636</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>71.39556506237817</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318958</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>101.8925903961653</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243176</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>159.048271228012</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1436320.962331035</v>
+        <v>1438081.492633821</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>249.1524003704187</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>2.85402886665252</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657078</v>
       </c>
       <c r="H3" t="n">
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.817218682477</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>54.45803047044415</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>72.08802744677259</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>75.45713216103746</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>394.2071006265883</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>145.2400692563854</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.7418792329073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>19.68942351146619</v>
+        <v>238.3258469238189</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.08802744677224</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>203.7029035467948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>134.3852063573451</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>25.2632269748843</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>83.06560892428207</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>162.4016674345626</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>123.9815576456783</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986326</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>83.06560892427694</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>78.91051008678096</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>81.13054509253726</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>94.64226186542935</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>151.855586233358</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3793,7 +3793,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756242</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>33.45472478221009</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.795585684488</v>
+        <v>2257.256030805452</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.833068744076</v>
+        <v>1888.29351386504</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1530.02781525829</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1144.239562660046</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>733.2536578704382</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>318.1812077154347</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4348,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2421.86118400969</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X2" t="n">
-        <v>2048.39542574861</v>
+        <v>2257.256030805452</v>
       </c>
       <c r="Y2" t="n">
-        <v>2048.39542574861</v>
+        <v>2257.256030805452</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686066</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>2695.175226737384</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>2526.239043809478</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>3097.616270711154</v>
       </c>
       <c r="Y4" t="n">
-        <v>848.0708164780106</v>
+        <v>2876.823691567624</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796256</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C5" t="n">
-        <v>921.7704558796256</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D5" t="n">
-        <v>921.7704558796256</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>921.7704558796256</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,7 +4567,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,7 +4576,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4603,16 +4603,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
         <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>216.6287558445192</v>
+        <v>511.2489900899278</v>
       </c>
       <c r="C7" t="n">
-        <v>216.6287558445192</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
         <v>66.51211643218342</v>
@@ -4749,28 +4749,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>603.0669976776956</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y7" t="n">
-        <v>398.2772206747588</v>
+        <v>692.8974549201675</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1698.509627919559</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C8" t="n">
-        <v>1698.509627919559</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="D8" t="n">
-        <v>1340.243929312809</v>
+        <v>1133.303650087723</v>
       </c>
       <c r="E8" t="n">
-        <v>954.4556767145643</v>
+        <v>1133.303650087723</v>
       </c>
       <c r="F8" t="n">
-        <v>543.4697719249568</v>
+        <v>722.3177452981151</v>
       </c>
       <c r="G8" t="n">
-        <v>128.3973217699533</v>
+        <v>307.2452951431116</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.509627919559</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="9">
@@ -4859,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4901,7 +4901,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181845</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,28 +5053,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703119</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C13" t="n">
-        <v>526.565882642405</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D13" t="n">
-        <v>376.4492432300692</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>376.4492432300692</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>229.5592957321589</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,64 +5266,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>261.012762333092</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>261.012762333092</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797191</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5652,55 +5652,55 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
         <v>2035.268256189238</v>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400717</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400717</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>365.9405071576786</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>219.0505596597682</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6010,31 +6010,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803938</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121596</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,22 +6220,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6247,28 +6247,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,19 +6460,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6481,7 +6481,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
@@ -6490,13 +6490,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>718.550723916711</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>549.6145409888042</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6145409888042</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797189</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2182.158203687148</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1893.082977031346</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1638.398488825459</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1348.981318788498</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>1120.991767890481</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>900.1991887469508</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6709,19 +6709,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6840,16 +6840,16 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819236</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111692</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L37" t="n">
         <v>826.1405381797747</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803938</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797747</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7551,19 +7551,19 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7636,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.7540666811332</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C46" t="n">
-        <v>781.8178837532263</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408905</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>202.303641104158</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2413.170432285099</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>2193.56896730804</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U46" t="n">
-        <v>1904.493740652238</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V46" t="n">
-        <v>1649.809252446351</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W46" t="n">
-        <v>1360.39208240939</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>1132.402531511373</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y46" t="n">
-        <v>1132.402531511373</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
   </sheetData>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>31.13893193492376</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>226.8744163489437</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>63.3683537222871</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>4.845153664065265</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>41.54258064659051</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393541</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194612</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>136.274905234751</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>191.8807364711616</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>65.54986409393027</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>46.45968844823057</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>32.89260457059963</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>147.5715612194345</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>922678.5798115525</v>
+        <v>922678.5798115527</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>922678.5798115525</v>
+        <v>922678.5798115524</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115524</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>922678.5798115525</v>
+        <v>922678.5798115527</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115528</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="K2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="M2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="N2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="O2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="P2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
@@ -26438,10 +26438,10 @@
         <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
@@ -26450,7 +26450,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687967</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1017124.324227862</v>
+        <v>-1017124.324227861</v>
       </c>
       <c r="C6" t="n">
-        <v>311620.4214997312</v>
+        <v>311620.4214997311</v>
       </c>
       <c r="D6" t="n">
-        <v>311620.4214997315</v>
+        <v>311620.4214997311</v>
       </c>
       <c r="E6" t="n">
-        <v>62147.61391375409</v>
+        <v>62460.25524267614</v>
       </c>
       <c r="F6" t="n">
-        <v>387560.0757211102</v>
+        <v>387872.717050031</v>
       </c>
       <c r="G6" t="n">
-        <v>387560.0757211099</v>
+        <v>387872.7170500311</v>
       </c>
       <c r="H6" t="n">
-        <v>387560.0757211098</v>
+        <v>387872.7170500311</v>
       </c>
       <c r="I6" t="n">
-        <v>387560.0757211099</v>
+        <v>387872.7170500311</v>
       </c>
       <c r="J6" t="n">
-        <v>170028.8733238326</v>
+        <v>170341.5146527536</v>
       </c>
       <c r="K6" t="n">
-        <v>387560.07572111</v>
+        <v>387872.7170500312</v>
       </c>
       <c r="L6" t="n">
-        <v>387560.0757211098</v>
+        <v>387872.717050031</v>
       </c>
       <c r="M6" t="n">
-        <v>302505.0477855981</v>
+        <v>302817.6891145196</v>
       </c>
       <c r="N6" t="n">
-        <v>387560.07572111</v>
+        <v>387872.7170500311</v>
       </c>
       <c r="O6" t="n">
-        <v>387560.0757211099</v>
+        <v>387872.7170500311</v>
       </c>
       <c r="P6" t="n">
-        <v>387560.0757211099</v>
+        <v>387872.7170500312</v>
       </c>
     </row>
   </sheetData>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>45.45536401690171</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>346.3869398507605</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>94.1574425477682</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>146.4966259053222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>307.2767095024431</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>12.66894511512317</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>22.00675184224241</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.84277411918745</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>274.9183408758543</v>
+        <v>56.28191746350157</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.7439527351651</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>14.88174980530002</v>
       </c>
     </row>
     <row r="11">
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29198,7 +29198,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29450,7 +29450,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>400.5469039565762</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067208</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,16 +33733,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669205</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043726</v>
@@ -33970,16 +33970,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236508</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>257.9506595121318</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236314895</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>499.2977362695175</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
